--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
   <si>
     <t>土地坐落</t>
   </si>
@@ -224,6 +224,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>琉園股份有限公司</t>
   </si>
   <si>
@@ -252,6 +261,9 @@
   </si>
   <si>
     <t>2，500’000</t>
+  </si>
+  <si>
+    <t>2012-04-02</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1387,13 +1399,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1412,13 +1424,22 @@
       <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1435,8 +1456,17 @@
       <c r="G2" s="2">
         <v>16445990</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>71</v>
       </c>
@@ -1458,13 +1488,22 @@
       <c r="G3" s="2">
         <v>700000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1481,13 +1520,22 @@
       <c r="G4" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1504,16 +1552,25 @@
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1527,13 +1584,22 @@
       <c r="G6" s="2">
         <v>312740</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1548,15 +1614,24 @@
         <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1573,13 +1648,22 @@
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1596,13 +1680,22 @@
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1619,13 +1712,22 @@
       <c r="G10" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -1641,6 +1743,15 @@
       </c>
       <c r="G11" s="2">
         <v>480000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -1658,16 +1769,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1675,7 +1786,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1692,7 +1803,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1701,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1719,16 +1830,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1736,16 +1847,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1753,16 +1864,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1770,16 +1881,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1787,16 +1898,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1814,22 +1925,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1840,19 +1951,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
   <si>
     <t>土地坐落</t>
   </si>
@@ -224,6 +224,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -248,19 +251,22 @@
     <t>元晶太陽能股份有限公司</t>
   </si>
   <si>
-    <t>旭晶能源科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>和碩聯合科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>景岳生物科技股份有限公 司</t>
+    <t>旭晶能源科技股份有限公司</t>
+  </si>
+  <si>
+    <t>和碩聯合科技股份有限公司</t>
+  </si>
+  <si>
+    <t>景岳生物科技股份有限公司</t>
   </si>
   <si>
     <t>了守中</t>
   </si>
   <si>
-    <t>2，500’000</t>
+    <t>2500’000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-02</t>
@@ -1399,13 +1405,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1433,13 +1439,16 @@
       <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1457,16 +1466,19 @@
         <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>71</v>
       </c>
@@ -1489,21 +1501,24 @@
         <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2">
+        <v>82</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1521,21 +1536,24 @@
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2">
+        <v>82</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1553,24 +1571,27 @@
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1585,21 +1606,24 @@
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1614,24 +1638,27 @@
         <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1649,21 +1676,24 @@
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1681,21 +1711,24 @@
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1713,21 +1746,24 @@
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -1745,12 +1781,15 @@
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2">
+        <v>82</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
         <v>515</v>
       </c>
     </row>
@@ -1769,16 +1808,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1786,7 +1825,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1803,7 +1842,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1812,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1830,16 +1869,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1847,16 +1886,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1864,16 +1903,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1881,16 +1920,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1898,16 +1937,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1925,22 +1964,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1951,19 +1990,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="115">
   <si>
     <t>土地坐落</t>
   </si>
@@ -227,6 +227,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -236,6 +239,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>琉園股份有限公司</t>
   </si>
   <si>
@@ -263,13 +272,19 @@
     <t>了守中</t>
   </si>
   <si>
-    <t>2500’000</t>
+    <t>2500000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-02</t>
+  </si>
+  <si>
+    <t>tmpf49e1</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1405,13 +1420,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1442,13 +1457,22 @@
       <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1466,19 +1490,28 @@
         <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>71</v>
       </c>
@@ -1501,24 +1534,33 @@
         <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1536,24 +1578,33 @@
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1571,27 +1622,36 @@
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1606,24 +1666,33 @@
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1638,27 +1707,36 @@
         <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1676,24 +1754,33 @@
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1711,24 +1798,33 @@
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1746,24 +1842,33 @@
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -1781,16 +1886,25 @@
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2">
         <v>515</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1808,16 +1922,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1825,7 +1939,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1842,7 +1956,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1851,7 +1965,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1869,16 +1983,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1886,16 +2000,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1903,16 +2017,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1920,16 +2034,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1937,16 +2051,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1964,22 +2078,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1990,19 +2104,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,9 +21,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="115">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="120">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00930000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00660000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00210008地號</t>
+  </si>
+  <si>
+    <t>10000分之101</t>
+  </si>
+  <si>
+    <t>97300分之4170</t>
+  </si>
+  <si>
+    <t>10000分之84</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>丁守中</t>
+  </si>
+  <si>
+    <t>溫+苓</t>
+  </si>
+  <si>
+    <t>溫子苓</t>
+  </si>
+  <si>
+    <t>78年10月11曰</t>
+  </si>
+  <si>
+    <t>93年08月19日</t>
+  </si>
+  <si>
+    <t>85年05月24日</t>
+  </si>
+  <si>
+    <t>97年07月22日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>nn貝買</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超渦年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-02</t>
+  </si>
+  <si>
+    <t>tmpf49e1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,91 +155,31 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段 0093-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 0066-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 0021-0008 地號</t>
-  </si>
-  <si>
-    <t>10000分之 101</t>
-  </si>
-  <si>
-    <t>97300分之 4170</t>
-  </si>
-  <si>
-    <t>10000分之 84</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>丁守中</t>
-  </si>
-  <si>
-    <t>溫+苓</t>
-  </si>
-  <si>
-    <t>溫子苓</t>
-  </si>
-  <si>
-    <t>78年10月 11曰</t>
-  </si>
-  <si>
-    <t>93年08月 19日</t>
-  </si>
-  <si>
-    <t>85年05月 24日</t>
-  </si>
-  <si>
-    <t>97年07月 22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>n-n 貝買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超,渦年)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12407-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12496-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12398-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12884-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12891-000 建號</t>
+    <t>臺北市北投區振興段一小段12407000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12496000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12398000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12884000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12891000建號</t>
   </si>
   <si>
     <t>56分之1</t>
   </si>
   <si>
-    <t>100000 分 之 4464</t>
+    <t>100000分之4464</t>
   </si>
   <si>
     <t>r守中</t>
   </si>
   <si>
-    <t>78年10月 11 B</t>
+    <t>78年10月11B</t>
   </si>
   <si>
     <t>(超堝石年)</t>
@@ -143,10 +194,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>LEXUS ES350 (客車）</t>
-  </si>
-  <si>
-    <t>100 年 04 月19闩</t>
+    <t>LEXUSES350(客車）</t>
+  </si>
+  <si>
+    <t>100年04月19闩</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -206,12 +257,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -224,27 +269,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>琉園股份有限公司</t>
   </si>
   <si>
@@ -278,19 +302,10 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-02</t>
-  </si>
-  <si>
-    <t>tmpf49e1</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -299,10 +314,10 @@
     <t>手錶</t>
   </si>
   <si>
-    <t>手錶’珠寶</t>
-  </si>
-  <si>
-    <t>2,000，000</t>
+    <t>手錶珠寶</t>
+  </si>
+  <si>
+    <t>2000000</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -332,13 +347,13 @@
     <t>20年期年繳56167元</t>
   </si>
   <si>
-    <t>新20年期增值分紅年繳 64602元</t>
-  </si>
-  <si>
-    <t>新20年期增值分紅年繳 41542元</t>
-  </si>
-  <si>
-    <t>(十二）事業投資（總金額：新臺幣990,000元）投資人</t>
+    <t>新20年期增值分紅年繳64602元</t>
+  </si>
+  <si>
+    <t>新20年期增值分紅年繳41542元</t>
+  </si>
+  <si>
+    <t>(十二）事業投資（總金額：新臺幣990000元）投資人</t>
   </si>
   <si>
     <t>投資事業名稱</t>
@@ -359,10 +374,10 @@
     <t>鼎天股份有限公司</t>
   </si>
   <si>
-    <t>臺北市北投區北投路二段13 號10樓之一</t>
-  </si>
-  <si>
-    <t>95年09月 01日</t>
+    <t>臺北市北投區北投路二段13號10樓之一</t>
+  </si>
+  <si>
+    <t>95年09月01日</t>
   </si>
   <si>
     <t>投資</t>
@@ -724,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,109 +767,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3971</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>515</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>973</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>515</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>3971</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>515</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>2975.21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>29700000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>515</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -872,25 +992,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -898,25 +1018,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>193.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -924,25 +1044,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>2357.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -950,25 +1070,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>153.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -976,25 +1096,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>2357.46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1002,25 +1122,25 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>126.18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1028,25 +1148,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>1350.27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1064,22 +1184,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1087,19 +1207,19 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
@@ -1120,22 +1240,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1143,16 +1263,16 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1164,16 +1284,16 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1185,16 +1305,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1206,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1227,16 +1347,16 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1248,16 +1368,16 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>10471.02</v>
@@ -1271,16 +1391,16 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1292,16 +1412,16 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1313,16 +1433,16 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1334,16 +1454,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1355,16 +1475,16 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1376,16 +1496,16 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1397,16 +1517,16 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1428,43 +1548,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1472,10 +1592,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>1644599</v>
@@ -1484,28 +1604,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>515</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
         <v>70</v>
@@ -1516,10 +1636,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>70000</v>
@@ -1528,28 +1648,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>515</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>71</v>
@@ -1560,10 +1680,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>50000</v>
@@ -1572,28 +1692,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>515</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
         <v>72</v>
@@ -1604,10 +1724,10 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>240000</v>
@@ -1616,28 +1736,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>515</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
         <v>73</v>
@@ -1648,10 +1768,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1660,28 +1780,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>515</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
         <v>75</v>
@@ -1692,10 +1812,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>250000</v>
@@ -1704,28 +1824,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>515</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
         <v>76</v>
@@ -1736,10 +1856,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>200000</v>
@@ -1748,28 +1868,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>515</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2">
         <v>77</v>
@@ -1780,10 +1900,10 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>115000</v>
@@ -1792,28 +1912,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>515</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
         <v>78</v>
@@ -1824,10 +1944,10 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>40000</v>
@@ -1836,28 +1956,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>515</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2">
         <v>79</v>
@@ -1868,10 +1988,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>48000</v>
@@ -1880,28 +2000,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>515</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2">
         <v>80</v>
@@ -1922,16 +2042,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1939,13 +2059,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
@@ -1956,16 +2076,16 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1983,16 +2103,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2000,16 +2120,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2017,16 +2137,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2034,16 +2154,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2051,16 +2171,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2078,22 +2198,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2101,22 +2221,22 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -65,18 +65,21 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00660000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區振興段一小段00930000地號</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段00660000地號</t>
-  </si>
-  <si>
     <t>臺北市北投區振興段一小段00210008地號</t>
   </si>
   <si>
-    <t>10000分之101</t>
-  </si>
-  <si>
     <t>97300分之4170</t>
   </si>
   <si>
@@ -95,129 +98,90 @@
     <t>溫子苓</t>
   </si>
   <si>
+    <t>93年08月19日</t>
+  </si>
+  <si>
+    <t>85年05月24日</t>
+  </si>
+  <si>
+    <t>97年07月22日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>nn貝買</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超渦年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-02</t>
+  </si>
+  <si>
+    <t>tmpf49e1</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12407000建號</t>
+  </si>
+  <si>
+    <t>78年10月11B</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12496000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12398000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12884000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12891000建號</t>
+  </si>
+  <si>
+    <t>56分之1</t>
+  </si>
+  <si>
+    <t>100000分之4464</t>
+  </si>
+  <si>
+    <t>r守中</t>
+  </si>
+  <si>
     <t>78年10月11曰</t>
   </si>
   <si>
-    <t>93年08月19日</t>
-  </si>
-  <si>
-    <t>85年05月24日</t>
-  </si>
-  <si>
-    <t>97年07月22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>nn貝買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超渦年)</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-02</t>
-  </si>
-  <si>
-    <t>tmpf49e1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12407000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12496000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12398000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12884000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12891000建號</t>
-  </si>
-  <si>
-    <t>56分之1</t>
-  </si>
-  <si>
-    <t>100000分之4464</t>
-  </si>
-  <si>
-    <t>r守中</t>
-  </si>
-  <si>
-    <t>78年10月11B</t>
-  </si>
-  <si>
     <t>(超堝石年)</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>LEXUSES350(客車）</t>
   </si>
   <si>
     <t>100年04月19闩</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
@@ -239,9 +203,6 @@
     <t>華南商業銀行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -251,9 +212,6 @@
     <t>支票存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -266,12 +224,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>琉園股份有限公司</t>
-  </si>
-  <si>
     <t>愛樂電台股份有限公司</t>
   </si>
   <si>
@@ -302,15 +254,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>手錶</t>
   </si>
   <si>
@@ -320,30 +263,18 @@
     <t>2000000</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>南山康福20年期終身壽險</t>
   </si>
   <si>
+    <t>20年期年繳68310元</t>
+  </si>
+  <si>
     <t>終身壽險</t>
   </si>
   <si>
-    <t>20年期年繳68310元</t>
-  </si>
-  <si>
     <t>20年期年繳56167元</t>
   </si>
   <si>
@@ -351,24 +282,6 @@
   </si>
   <si>
     <t>新20年期增值分紅年繳41542元</t>
-  </si>
-  <si>
-    <t>(十二）事業投資（總金額：新臺幣990000元）投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>鼎天股份有限公司</t>
@@ -739,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,25 +701,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3971</v>
+        <v>973</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -824,7 +743,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>515</v>
@@ -833,33 +752,39 @@
         <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0428571428571429</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>973</v>
+        <v>3971</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -871,7 +796,7 @@
         <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>515</v>
@@ -880,33 +805,39 @@
         <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0084</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>33.3564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3971</v>
+        <v>2975.21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
+      <c r="H4" s="2">
+        <v>29700000</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -918,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>515</v>
@@ -927,54 +858,13 @@
         <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>2975.21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2">
-        <v>29700000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>515</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,46 +884,46 @@
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>193.66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>193.66</v>
+        <v>2357.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
@@ -1041,25 +931,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
-        <v>2357.46</v>
+        <v>153.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>31</v>
@@ -1067,25 +957,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>153.32</v>
+        <v>2357.46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>31</v>
@@ -1093,22 +983,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>2357.46</v>
+        <v>126.18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
@@ -1119,54 +1009,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
-        <v>126.18</v>
+        <v>1350.27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1350.27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1040,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,352 +1081,273 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>139682</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>139682</v>
+        <v>244911</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>244911</v>
+        <v>664256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>664256</v>
+        <v>1915713</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1915713</v>
+        <v>149924</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10471.02</v>
+      </c>
       <c r="G6" s="2">
-        <v>149924</v>
+        <v>305126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10471.02</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>305126</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>10000</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>733</v>
+        <v>55130</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>55130</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>5000</v>
+        <v>794873</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>794873</v>
+        <v>75867</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>75867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
         <v>194103</v>
       </c>
     </row>
@@ -1540,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1554,16 +1372,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1589,28 +1407,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>1644599</v>
+        <v>70000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" s="2">
-        <v>16445990</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -1619,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>515</v>
@@ -1628,33 +1446,33 @@
         <v>36</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" s="2">
-        <v>700000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -1663,7 +1481,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>515</v>
@@ -1672,33 +1490,33 @@
         <v>36</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>50000</v>
+        <v>240000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -1707,7 +1525,7 @@
         <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>515</v>
@@ -1716,33 +1534,33 @@
         <v>36</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
-        <v>240000</v>
+        <v>31274</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2">
+        <v>312740</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2400000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -1751,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>515</v>
@@ -1760,33 +1578,33 @@
         <v>36</v>
       </c>
       <c r="N5" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>31274</v>
+        <v>250000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G6" s="2">
-        <v>312740</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -1795,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>515</v>
@@ -1804,33 +1622,33 @@
         <v>36</v>
       </c>
       <c r="N6" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -1839,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>515</v>
@@ -1848,33 +1666,33 @@
         <v>36</v>
       </c>
       <c r="N7" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>200000</v>
+        <v>115000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1150000</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
@@ -1883,7 +1701,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>515</v>
@@ -1892,33 +1710,33 @@
         <v>36</v>
       </c>
       <c r="N8" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>115000</v>
+        <v>40000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1150000</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>34</v>
@@ -1927,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>515</v>
@@ -1936,33 +1754,33 @@
         <v>36</v>
       </c>
       <c r="N9" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="2">
+        <v>480000</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G10" s="2">
-        <v>400000</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>34</v>
@@ -1971,7 +1789,7 @@
         <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>515</v>
@@ -1980,50 +1798,6 @@
         <v>36</v>
       </c>
       <c r="N10" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>80</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>48000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2">
-        <v>480000</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2">
-        <v>515</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="2">
         <v>80</v>
       </c>
     </row>
@@ -2034,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2042,50 +1816,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>22</v>
+      </c>
+      <c r="E1" s="1">
+        <v>600000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2103,84 +1860,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2190,53 +1930,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
+      </c>
+      <c r="E1" s="1">
+        <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2">
-        <v>990000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -71,15 +71,18 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市北投區振興段一小段00930000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區振興段一小段00660000地號</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段00930000地號</t>
-  </si>
-  <si>
     <t>臺北市北投區振興段一小段00210008地號</t>
   </si>
   <si>
+    <t>10000分之101</t>
+  </si>
+  <si>
     <t>97300分之4170</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>溫子苓</t>
   </si>
   <si>
+    <t>78年10月11曰</t>
+  </si>
+  <si>
     <t>93年08月19日</t>
   </si>
   <si>
@@ -107,15 +113,15 @@
     <t>97年07月22日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
     <t>nn貝買</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -137,33 +143,30 @@
     <t>臺北市北投區振興段一小段12407000建號</t>
   </si>
   <si>
+    <t>臺北市北投區振興段一小段12496000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12398000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12884000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12891000建號</t>
+  </si>
+  <si>
+    <t>56分之1</t>
+  </si>
+  <si>
+    <t>100000分之4464</t>
+  </si>
+  <si>
+    <t>r守中</t>
+  </si>
+  <si>
     <t>78年10月11B</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段12496000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12398000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12884000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12891000建號</t>
-  </si>
-  <si>
-    <t>56分之1</t>
-  </si>
-  <si>
-    <t>100000分之4464</t>
-  </si>
-  <si>
-    <t>r守中</t>
-  </si>
-  <si>
-    <t>78年10月11曰</t>
-  </si>
-  <si>
     <t>(超堝石年)</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>琉園股份有限公司</t>
   </si>
   <si>
     <t>愛樂電台股份有限公司</t>
@@ -652,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -710,66 +716,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>973</v>
+        <v>3971</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>515</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0428571428571429</v>
+        <v>0.0101</v>
       </c>
       <c r="Q2" s="2">
-        <v>41.7</v>
+        <v>40.1071</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3971</v>
+        <v>973</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -778,51 +784,51 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>515</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0084</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.3564</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="2">
-        <v>2975.21</v>
+        <v>3971</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -831,39 +837,92 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>29700000</v>
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>515</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0084</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>33.3564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2975.21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>29700000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2">
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>515</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>2975.21</v>
       </c>
     </row>
@@ -874,76 +933,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>193.66</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>2357.46</v>
+        <v>193.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>515</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>193.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2">
-        <v>153.32</v>
+        <v>2357.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
@@ -952,85 +1065,246 @@
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>515</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>42.0975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>2357.46</v>
+        <v>153.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>515</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>153.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>126.18</v>
+        <v>2357.46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>515</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>42.0975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="2">
+        <v>126.18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>515</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>126.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
         <v>1350.27</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>515</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>26</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.04464</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>60.2760528</v>
       </c>
     </row>
   </sheetData>
@@ -1040,29 +1314,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1">
         <v>3456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
         <v>600000</v>
       </c>
     </row>
@@ -1073,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1081,16 +1378,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1099,255 +1396,276 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>244911</v>
+        <v>139682</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>664256</v>
+        <v>244911</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1915713</v>
+        <v>664256</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>149924</v>
+        <v>1915713</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10471.02</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>305126</v>
+        <v>149924</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10471.02</v>
+      </c>
       <c r="G7" s="2">
-        <v>10000</v>
+        <v>305126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>733</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>55130</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>5000</v>
+        <v>55130</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>794873</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>75867</v>
+        <v>794873</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
+        <v>75867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>194103</v>
       </c>
     </row>
@@ -1358,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1372,13 +1690,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1407,397 +1725,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>70000</v>
+        <v>1644599</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
-        <v>700000</v>
+        <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>515</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>515</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>240000</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
-        <v>2400000</v>
+        <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>515</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>31274</v>
+        <v>240000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
-        <v>312740</v>
+        <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>515</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="2">
-        <v>250000</v>
+        <v>31274</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="G6" s="2">
+        <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>515</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2000000</v>
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>515</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>115000</v>
+        <v>200000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>1150000</v>
+        <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>515</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>40000</v>
+        <v>115000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
-        <v>400000</v>
+        <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>515</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
-        <v>480000</v>
+        <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>515</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>48000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2">
+        <v>480000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="2">
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2">
+        <v>515</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1808,7 +2170,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1816,13 +2178,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1">
         <v>600000</v>
@@ -1830,19 +2192,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1860,30 +2239,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>84</v>
@@ -1891,36 +2270,53 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>108</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>86</v>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1930,30 +2326,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="E2" s="2">
+        <v>990000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUSES350(客車）</t>
@@ -1314,38 +1317,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1">
-        <v>3456</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1354,13 +1378,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>515</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1378,13 +1423,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1399,13 +1444,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1420,13 +1465,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1441,13 +1486,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1462,13 +1507,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1483,13 +1528,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1504,13 +1549,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1527,13 +1572,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1548,13 +1593,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1569,13 +1614,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1590,13 +1635,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1611,13 +1656,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1632,13 +1677,13 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1653,13 +1698,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1690,13 +1735,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1728,7 +1773,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1740,13 +1785,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -1772,7 +1817,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1784,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
         <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
@@ -1816,7 +1861,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1828,13 +1873,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>36</v>
@@ -1860,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1872,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>36</v>
@@ -1904,10 +1949,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1916,13 +1961,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>36</v>
@@ -1948,7 +1993,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -1960,13 +2005,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>36</v>
@@ -1992,7 +2037,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2004,13 +2049,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -2036,7 +2081,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2048,13 +2093,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>36</v>
@@ -2080,7 +2125,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -2092,13 +2137,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>36</v>
@@ -2124,7 +2169,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -2136,13 +2181,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>36</v>
@@ -2178,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2195,7 +2240,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2212,7 +2257,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2221,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2239,16 +2284,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2256,16 +2301,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2273,16 +2318,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2290,16 +2335,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2307,16 +2352,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2337,19 +2382,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2360,19 +2405,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -170,6 +170,9 @@
     <t>(超堝石年)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
   </si>
   <si>
     <t>100年04月19闩</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -1018,7 +1024,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>36</v>
@@ -1071,7 +1077,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>36</v>
@@ -1124,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>36</v>
@@ -1177,7 +1183,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>36</v>
@@ -1230,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>36</v>
@@ -1283,7 +1289,7 @@
         <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>36</v>
@@ -1328,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1369,7 +1375,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1378,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -1387,7 +1393,7 @@
         <v>600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -1423,13 +1429,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1444,13 +1450,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1465,13 +1471,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1486,13 +1492,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1507,13 +1513,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1528,13 +1534,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1549,13 +1555,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1572,13 +1578,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1593,13 +1599,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1614,13 +1620,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1635,13 +1641,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1656,13 +1662,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1677,13 +1683,13 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1698,13 +1704,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1735,13 +1741,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1773,7 +1779,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1785,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -1817,7 +1823,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1829,13 +1835,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
         <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
@@ -1861,7 +1867,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1873,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>36</v>
@@ -1905,7 +1911,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1917,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>36</v>
@@ -1949,10 +1955,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1961,13 +1967,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>36</v>
@@ -1993,7 +1999,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2005,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>36</v>
@@ -2037,7 +2043,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2049,13 +2055,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -2081,7 +2087,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2093,13 +2099,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>36</v>
@@ -2125,7 +2131,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -2137,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>36</v>
@@ -2169,7 +2175,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -2181,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>36</v>
@@ -2223,7 +2229,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2240,7 +2246,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2257,7 +2263,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2266,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2284,16 +2290,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2301,16 +2307,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2318,16 +2324,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2335,16 +2341,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2352,16 +2358,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2382,19 +2388,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2405,19 +2411,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -185,55 +185,64 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>上海商業儲蓄銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>上海商業儲蓄銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>琉園股份有限公司</t>
@@ -1421,13 +1430,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1438,286 +1447,564 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>139682</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>139682</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>515</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>244911</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>515</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>664256</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>515</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1915713</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>515</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>149924</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>515</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>10471.02</v>
-      </c>
-      <c r="G7" s="2">
         <v>305126</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>515</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>515</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>733</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>515</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>55130</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>515</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>515</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>794873</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
+        <v>515</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>75867</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <v>515</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>194103</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <v>515</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1741,13 +2028,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1779,7 +2066,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1791,13 +2078,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>16445990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -1823,7 +2110,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1835,13 +2122,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
         <v>700000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
@@ -1867,7 +2154,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1879,13 +2166,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>36</v>
@@ -1911,7 +2198,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1923,13 +2210,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>36</v>
@@ -1955,10 +2242,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1967,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>36</v>
@@ -1999,7 +2286,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2011,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>36</v>
@@ -2043,7 +2330,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2055,13 +2342,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -2087,7 +2374,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2099,13 +2386,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>36</v>
@@ -2131,7 +2418,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -2143,13 +2430,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>36</v>
@@ -2175,7 +2462,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -2187,13 +2474,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>36</v>
@@ -2229,7 +2516,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2246,7 +2533,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2263,7 +2550,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2272,7 +2559,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2290,16 +2577,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2307,16 +2594,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2324,16 +2611,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2341,16 +2628,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2358,16 +2645,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2388,19 +2675,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2411,19 +2698,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>2000000</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2508,27 +2511,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>99</v>
       </c>
@@ -2544,8 +2568,29 @@
       <c r="E2" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>515</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2560,6 +2605,27 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>515</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2577,16 +2643,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2594,16 +2660,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2611,16 +2677,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2628,16 +2694,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2645,16 +2711,16 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2675,19 +2741,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2698,19 +2764,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -287,7 +287,10 @@
     <t>2000000</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -296,19 +299,16 @@
     <t>南山康福20年期終身壽險</t>
   </si>
   <si>
-    <t>20年期年繳68310元</t>
-  </si>
-  <si>
     <t>終身壽險</t>
   </si>
   <si>
-    <t>20年期年繳56167元</t>
-  </si>
-  <si>
-    <t>新20年期增值分紅年繳64602元</t>
-  </si>
-  <si>
-    <t>新20年期增值分紅年繳41542元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>鼎天股份有限公司</t>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2635,52 +2638,88 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>515</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2688,13 +2727,31 @@
       <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>515</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
@@ -2703,15 +2760,33 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>515</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>92</v>
@@ -2720,7 +2795,25 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>515</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2730,33 +2823,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1">
-        <v>990000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>123</v>
       </c>
@@ -2777,6 +2891,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>515</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
+++ b/legislator/property/output/normal/丁守中_2012-04-02_財產申報表_tmpf49e1.xlsx
@@ -15,13 +15,14 @@
     <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
     <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -311,6 +312,24 @@
     <t>debtor</t>
   </si>
   <si>
+    <t>房岸十地抵押貸款</t>
+  </si>
+  <si>
+    <t>華南商業銀行臺北市北投區北投路</t>
+  </si>
+  <si>
+    <t>100年01月10日</t>
+  </si>
+  <si>
+    <t>房屋土地抵押貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>鼎天股份有限公司</t>
   </si>
   <si>
@@ -323,7 +342,7 @@
     <t>投資</t>
   </si>
   <si>
-    <t>debt</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2823,6 +2842,148 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15757122</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>515</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9510466</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>515</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2831,13 +2992,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2872,28 +3033,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -2911,7 +3072,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
